--- a/export_healtmonitoring.xlsx
+++ b/export_healtmonitoring.xlsx
@@ -1,33 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12345"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$J$33</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -74,170 +64,172 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+  <cellXfs count="11">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15041</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>125470</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>26608</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>30080</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="685800" cy="666750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="D:\2016 PACS StratComm\BIM Jepg Templates\dilglogo new.PNG"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="1" name="Picture 2" descr="D:\2016 PACS StratComm\BIM Jepg Templates\dilglogo new.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15041" y="125470"/>
-          <a:ext cx="681787" cy="666610"/>
-        </a:xfrm>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -252,44 +244,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -319,12 +311,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -363,173 +355,204 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.28515625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.5703125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.85546875" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.5703125" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.140625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.28515625" customWidth="true" style="0"/>
+    <col min="10" max="10" width="18.140625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -538,7 +561,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -547,63 +570,78 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" customHeight="1" ht="18.75">
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" customHeight="1" ht="18.75">
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:13" customHeight="1" ht="29.25">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="D6:H6"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="0"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/export_healtmonitoring.xlsx
+++ b/export_healtmonitoring.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$130</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -64,44 +69,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -109,10 +105,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -125,7 +118,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -139,62 +138,69 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -210,7 +216,7 @@
     <xdr:ext cx="685800" cy="666750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 2" descr="D:\2016 PACS StratComm\BIM Jepg Templates\dilglogo new.PNG"/>
+        <xdr:cNvPr id="2" name="Picture 2" descr="D:\2016 PACS StratComm\BIM Jepg Templates\dilglogo new.PNG"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -222,7 +228,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -276,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,40 +528,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.28515625" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.5703125" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.85546875" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.5703125" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8.140625" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16.28515625" customWidth="true" style="0"/>
-    <col min="10" max="10" width="18.140625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1"/>
-    </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -561,7 +563,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -570,78 +572,376 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:13" customHeight="1" ht="18.75">
-      <c r="C6" s="3"/>
-      <c r="D6" s="6" t="s">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" customHeight="1" ht="18.75">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:13" customHeight="1" ht="29.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="D6:H6"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="0"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="87" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="11" max="32" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>